--- a/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Classification_Report.xlsx
+++ b/Output/Modelling/Logistic Regression/Tables/Most_Complex_Model_Classification_Report.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,17 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
